--- a/Output/Cuadros/1. OOSS/cuadro2.xlsx
+++ b/Output/Cuadros/1. OOSS/cuadro2.xlsx
@@ -1,21 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\OneDrive - Instituto Nacional de Estadisticas\GitHub\OBSERVATORIO SINDICAL\COMPENDIOS_DT\Output\Cuadros\1. OOSS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_2D6CFDCE8F79A8D366075C52F3CC42B2EA9E93B3" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F4A833F1-FF3C-42DC-AD69-FDF492FA11A7}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="15" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+  <si>
+    <t>ano</t>
+  </si>
+  <si>
+    <t>afiliados_hombres</t>
+  </si>
+  <si>
+    <t>afiliados_mujeres</t>
+  </si>
+  <si>
+    <t>afiliados_total</t>
+  </si>
+  <si>
+    <t>ft_hombres</t>
+  </si>
+  <si>
+    <t>ft_mujeres</t>
+  </si>
+  <si>
+    <t>ft_total</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,11 +105,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -109,7 +159,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +191,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +243,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,66 +436,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ano</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>afiliados_hombres</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>afiliados_mujeres</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>afiliados_total</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ft_hombres</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>ft_mujeres</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ft_total</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ft_hombres</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>ft_mujeres</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>ft_total</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2002</v>
       </c>
@@ -435,13 +503,13 @@
         <v>15.3</v>
       </c>
       <c r="I2">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="J2">
         <v>13.1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2003</v>
       </c>
@@ -464,7 +532,7 @@
         <v>4849554</v>
       </c>
       <c r="H3">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="I3">
         <v>8.9</v>
@@ -473,7 +541,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2004</v>
       </c>
@@ -505,7 +573,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2005</v>
       </c>
@@ -537,7 +605,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2006</v>
       </c>
@@ -563,13 +631,13 @@
         <v>14.7</v>
       </c>
       <c r="I6">
-        <v>9.199999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="J6">
         <v>12.8</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2007</v>
       </c>
@@ -601,7 +669,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2008</v>
       </c>
@@ -633,7 +701,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2009</v>
       </c>
@@ -665,7 +733,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2010</v>
       </c>
@@ -697,7 +765,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2011</v>
       </c>
@@ -729,7 +797,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2012</v>
       </c>
@@ -761,7 +829,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2013</v>
       </c>
@@ -793,7 +861,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2014</v>
       </c>
@@ -825,7 +893,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2015</v>
       </c>
@@ -857,7 +925,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2016</v>
       </c>
@@ -883,13 +951,13 @@
         <v>16.5</v>
       </c>
       <c r="I16">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="J16">
         <v>16.5</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2017</v>
       </c>
@@ -912,16 +980,16 @@
         <v>6930933</v>
       </c>
       <c r="H17">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="I17">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="J17">
         <v>17</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2018</v>
       </c>
@@ -944,7 +1012,7 @@
         <v>6927523</v>
       </c>
       <c r="H18">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="I18">
         <v>17.7</v>

--- a/Output/Cuadros/1. OOSS/cuadro2.xlsx
+++ b/Output/Cuadros/1. OOSS/cuadro2.xlsx
@@ -1,63 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\OneDrive - Instituto Nacional de Estadisticas\GitHub\OBSERVATORIO SINDICAL\COMPENDIOS_DT\Output\Cuadros\1. OOSS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_2D6CFDCE8F79A8D366075C52F3CC42B2EA9E93B3" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F4A833F1-FF3C-42DC-AD69-FDF492FA11A7}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
-  <si>
-    <t>ano</t>
-  </si>
-  <si>
-    <t>afiliados_hombres</t>
-  </si>
-  <si>
-    <t>afiliados_mujeres</t>
-  </si>
-  <si>
-    <t>afiliados_total</t>
-  </si>
-  <si>
-    <t>ft_hombres</t>
-  </si>
-  <si>
-    <t>ft_mujeres</t>
-  </si>
-  <si>
-    <t>ft_total</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,19 +63,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -159,7 +109,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -191,27 +141,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -243,24 +175,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -436,48 +350,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ano</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>afiliados_hombres</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>afiliados_mujeres</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>afiliados_total</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ft_hombres</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ft_mujeres</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ft_total</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ts_hombres</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>ts_mujeres</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ts_total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
         <v>2002</v>
       </c>
@@ -503,13 +435,13 @@
         <v>15.3</v>
       </c>
       <c r="I2">
-        <v>8.1999999999999993</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J2">
         <v>13.1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3">
       <c r="A3">
         <v>2003</v>
       </c>
@@ -532,7 +464,7 @@
         <v>4849554</v>
       </c>
       <c r="H3">
-        <v>16.100000000000001</v>
+        <v>16.1</v>
       </c>
       <c r="I3">
         <v>8.9</v>
@@ -541,7 +473,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4">
       <c r="A4">
         <v>2004</v>
       </c>
@@ -573,7 +505,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5">
       <c r="A5">
         <v>2005</v>
       </c>
@@ -605,7 +537,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6">
       <c r="A6">
         <v>2006</v>
       </c>
@@ -631,13 +563,13 @@
         <v>14.7</v>
       </c>
       <c r="I6">
-        <v>9.1999999999999993</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J6">
         <v>12.8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7">
       <c r="A7">
         <v>2007</v>
       </c>
@@ -669,7 +601,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8">
       <c r="A8">
         <v>2008</v>
       </c>
@@ -701,7 +633,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9">
       <c r="A9">
         <v>2009</v>
       </c>
@@ -733,7 +665,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10">
       <c r="A10">
         <v>2010</v>
       </c>
@@ -765,7 +697,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11">
       <c r="A11">
         <v>2011</v>
       </c>
@@ -797,7 +729,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12">
       <c r="A12">
         <v>2012</v>
       </c>
@@ -829,7 +761,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13">
       <c r="A13">
         <v>2013</v>
       </c>
@@ -861,7 +793,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14">
       <c r="A14">
         <v>2014</v>
       </c>
@@ -893,7 +825,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15">
       <c r="A15">
         <v>2015</v>
       </c>
@@ -925,7 +857,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16">
       <c r="A16">
         <v>2016</v>
       </c>
@@ -951,13 +883,13 @@
         <v>16.5</v>
       </c>
       <c r="I16">
-        <v>16.600000000000001</v>
+        <v>16.6</v>
       </c>
       <c r="J16">
         <v>16.5</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17">
       <c r="A17">
         <v>2017</v>
       </c>
@@ -980,16 +912,16 @@
         <v>6930933</v>
       </c>
       <c r="H17">
-        <v>16.600000000000001</v>
+        <v>16.6</v>
       </c>
       <c r="I17">
-        <v>17.600000000000001</v>
+        <v>17.6</v>
       </c>
       <c r="J17">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18">
       <c r="A18">
         <v>2018</v>
       </c>
@@ -1012,13 +944,45 @@
         <v>6927523</v>
       </c>
       <c r="H18">
-        <v>16.399999999999999</v>
+        <v>16.4</v>
       </c>
       <c r="I18">
         <v>17.7</v>
       </c>
       <c r="J18">
         <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>2019</v>
+      </c>
+      <c r="B19">
+        <v>689228</v>
+      </c>
+      <c r="C19">
+        <v>503876</v>
+      </c>
+      <c r="D19">
+        <v>1193104</v>
+      </c>
+      <c r="E19">
+        <v>4446632.258064516</v>
+      </c>
+      <c r="F19">
+        <v>3072414.634146342</v>
+      </c>
+      <c r="G19">
+        <v>7503798.742138364</v>
+      </c>
+      <c r="H19">
+        <v>15.5</v>
+      </c>
+      <c r="I19">
+        <v>16.4</v>
+      </c>
+      <c r="J19">
+        <v>15.9</v>
       </c>
     </row>
   </sheetData>
